--- a/Assets/Resources/Data/ListTest.xlsx
+++ b/Assets/Resources/Data/ListTest.xlsx
@@ -5099,7 +5099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
       <selection activeCell="C199" sqref="C199"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/ListTest.xlsx
+++ b/Assets/Resources/Data/ListTest.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ikumu/Documents/UnityProject/MatrixCode/Assets/Resources/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="16155" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4745,14 +4758,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -4811,7 +4824,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4853,12 +4866,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -4888,12 +4901,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -5099,17 +5112,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C199" sqref="C199"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="10" max="10" width="61.25" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="10" max="10" width="61.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5145,7 +5158,7 @@
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5181,7 +5194,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5189,7 +5202,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -5217,7 +5230,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5253,7 +5266,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5289,7 +5302,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -5325,7 +5338,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -5361,7 +5374,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>260</v>
       </c>
@@ -5397,7 +5410,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -5433,7 +5446,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -5469,7 +5482,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -5505,7 +5518,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -5541,7 +5554,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -5577,7 +5590,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -5613,7 +5626,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -5649,7 +5662,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -5685,7 +5698,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -5721,7 +5734,7 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -5757,7 +5770,7 @@
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -5793,7 +5806,7 @@
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -5829,7 +5842,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -5865,7 +5878,7 @@
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -5901,7 +5914,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -5937,7 +5950,7 @@
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -5973,7 +5986,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -6009,7 +6022,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -6045,7 +6058,7 @@
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -6081,7 +6094,7 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -6117,7 +6130,7 @@
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -6153,7 +6166,7 @@
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>167</v>
       </c>
@@ -6189,7 +6202,7 @@
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>168</v>
       </c>
@@ -6225,7 +6238,7 @@
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -6261,7 +6274,7 @@
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -6297,7 +6310,7 @@
       </c>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -6333,7 +6346,7 @@
       </c>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -6369,7 +6382,7 @@
       </c>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -6405,7 +6418,7 @@
       </c>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
@@ -6441,7 +6454,7 @@
       </c>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
@@ -6477,7 +6490,7 @@
       </c>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
@@ -6513,7 +6526,7 @@
       </c>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
@@ -6549,7 +6562,7 @@
       </c>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
@@ -6585,7 +6598,7 @@
       </c>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
@@ -6621,7 +6634,7 @@
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
@@ -6657,7 +6670,7 @@
       </c>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
@@ -6693,7 +6706,7 @@
       </c>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>247</v>
       </c>
@@ -6729,7 +6742,7 @@
       </c>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>248</v>
       </c>
@@ -6765,7 +6778,7 @@
       </c>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>249</v>
       </c>
@@ -6801,7 +6814,7 @@
       </c>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>250</v>
       </c>
@@ -6837,7 +6850,7 @@
       </c>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>41</v>
       </c>
@@ -6873,7 +6886,7 @@
       </c>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
@@ -6909,7 +6922,7 @@
       </c>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>43</v>
       </c>
@@ -6945,7 +6958,7 @@
       </c>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>44</v>
       </c>
@@ -6981,7 +6994,7 @@
       </c>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>45</v>
       </c>
@@ -7017,7 +7030,7 @@
       </c>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>46</v>
       </c>
@@ -7053,7 +7066,7 @@
       </c>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>47</v>
       </c>
@@ -7089,7 +7102,7 @@
       </c>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>48</v>
       </c>
@@ -7125,7 +7138,7 @@
       </c>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>49</v>
       </c>
@@ -7161,7 +7174,7 @@
       </c>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>50</v>
       </c>
@@ -7197,7 +7210,7 @@
       </c>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>51</v>
       </c>
@@ -7233,7 +7246,7 @@
       </c>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>52</v>
       </c>
@@ -7269,7 +7282,7 @@
       </c>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>53</v>
       </c>
@@ -7305,7 +7318,7 @@
       </c>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>54</v>
       </c>
@@ -7341,7 +7354,7 @@
       </c>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>55</v>
       </c>
@@ -7377,7 +7390,7 @@
       </c>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>245</v>
       </c>
@@ -7413,7 +7426,7 @@
       </c>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>246</v>
       </c>
@@ -7449,7 +7462,7 @@
       </c>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>56</v>
       </c>
@@ -7485,7 +7498,7 @@
       </c>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>57</v>
       </c>
@@ -7521,7 +7534,7 @@
       </c>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>58</v>
       </c>
@@ -7557,7 +7570,7 @@
       </c>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>59</v>
       </c>
@@ -7593,7 +7606,7 @@
       </c>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>60</v>
       </c>
@@ -7629,7 +7642,7 @@
       </c>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>61</v>
       </c>
@@ -7665,7 +7678,7 @@
       </c>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>62</v>
       </c>
@@ -7701,7 +7714,7 @@
       </c>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>63</v>
       </c>
@@ -7737,7 +7750,7 @@
       </c>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>64</v>
       </c>
@@ -7773,7 +7786,7 @@
       </c>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>65</v>
       </c>
@@ -7809,7 +7822,7 @@
       </c>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>66</v>
       </c>
@@ -7845,7 +7858,7 @@
       </c>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>67</v>
       </c>
@@ -7881,7 +7894,7 @@
       </c>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>68</v>
       </c>
@@ -7917,7 +7930,7 @@
       </c>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>69</v>
       </c>
@@ -7953,7 +7966,7 @@
       </c>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>70</v>
       </c>
@@ -7989,7 +8002,7 @@
       </c>
       <c r="L80" s="1"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>71</v>
       </c>
@@ -8025,7 +8038,7 @@
       </c>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>72</v>
       </c>
@@ -8061,7 +8074,7 @@
       </c>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>73</v>
       </c>
@@ -8097,7 +8110,7 @@
       </c>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>74</v>
       </c>
@@ -8133,7 +8146,7 @@
       </c>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>75</v>
       </c>
@@ -8169,7 +8182,7 @@
       </c>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>76</v>
       </c>
@@ -8205,7 +8218,7 @@
       </c>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>77</v>
       </c>
@@ -8241,7 +8254,7 @@
       </c>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>78</v>
       </c>
@@ -8277,7 +8290,7 @@
       </c>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>79</v>
       </c>
@@ -8313,7 +8326,7 @@
       </c>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>80</v>
       </c>
@@ -8349,7 +8362,7 @@
       </c>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>81</v>
       </c>
@@ -8385,7 +8398,7 @@
       </c>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>82</v>
       </c>
@@ -8421,7 +8434,7 @@
       </c>
       <c r="L92" s="1"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>83</v>
       </c>
@@ -8457,7 +8470,7 @@
       </c>
       <c r="L93" s="1"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>84</v>
       </c>
@@ -8493,7 +8506,7 @@
       </c>
       <c r="L94" s="1"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>85</v>
       </c>
@@ -8529,7 +8542,7 @@
       </c>
       <c r="L95" s="1"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>86</v>
       </c>
@@ -8565,7 +8578,7 @@
       </c>
       <c r="L96" s="1"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>87</v>
       </c>
@@ -8601,7 +8614,7 @@
       </c>
       <c r="L97" s="1"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>88</v>
       </c>
@@ -8637,7 +8650,7 @@
       </c>
       <c r="L98" s="1"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>89</v>
       </c>
@@ -8673,7 +8686,7 @@
       </c>
       <c r="L99" s="1"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>90</v>
       </c>
@@ -8709,7 +8722,7 @@
       </c>
       <c r="L100" s="1"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>91</v>
       </c>
@@ -8745,7 +8758,7 @@
       </c>
       <c r="L101" s="1"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>92</v>
       </c>
@@ -8781,7 +8794,7 @@
       </c>
       <c r="L102" s="1"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>93</v>
       </c>
@@ -8817,7 +8830,7 @@
       </c>
       <c r="L103" s="1"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>94</v>
       </c>
@@ -8853,7 +8866,7 @@
       </c>
       <c r="L104" s="1"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>95</v>
       </c>
@@ -8889,7 +8902,7 @@
       </c>
       <c r="L105" s="1"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>96</v>
       </c>
@@ -8925,7 +8938,7 @@
       </c>
       <c r="L106" s="1"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>97</v>
       </c>
@@ -8961,7 +8974,7 @@
       </c>
       <c r="L107" s="1"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>98</v>
       </c>
@@ -8997,7 +9010,7 @@
       </c>
       <c r="L108" s="1"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>99</v>
       </c>
@@ -9033,7 +9046,7 @@
       </c>
       <c r="L109" s="1"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>100</v>
       </c>
@@ -9069,7 +9082,7 @@
       </c>
       <c r="L110" s="1"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>101</v>
       </c>
@@ -9105,7 +9118,7 @@
       </c>
       <c r="L111" s="1"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>102</v>
       </c>
@@ -9141,7 +9154,7 @@
       </c>
       <c r="L112" s="1"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>103</v>
       </c>
@@ -9177,7 +9190,7 @@
       </c>
       <c r="L113" s="1"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>104</v>
       </c>
@@ -9213,7 +9226,7 @@
       </c>
       <c r="L114" s="1"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>105</v>
       </c>
@@ -9249,7 +9262,7 @@
       </c>
       <c r="L115" s="1"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>106</v>
       </c>
@@ -9285,7 +9298,7 @@
       </c>
       <c r="L116" s="1"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>107</v>
       </c>
@@ -9321,7 +9334,7 @@
       </c>
       <c r="L117" s="1"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>108</v>
       </c>
@@ -9357,7 +9370,7 @@
       </c>
       <c r="L118" s="1"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>109</v>
       </c>
@@ -9393,7 +9406,7 @@
       </c>
       <c r="L119" s="1"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>110</v>
       </c>
@@ -9429,7 +9442,7 @@
       </c>
       <c r="L120" s="1"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>111</v>
       </c>
@@ -9465,7 +9478,7 @@
       </c>
       <c r="L121" s="1"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>112</v>
       </c>
@@ -9501,7 +9514,7 @@
       </c>
       <c r="L122" s="1"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>113</v>
       </c>
@@ -9537,7 +9550,7 @@
       </c>
       <c r="L123" s="1"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>114</v>
       </c>
@@ -9573,7 +9586,7 @@
       </c>
       <c r="L124" s="1"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>115</v>
       </c>
@@ -9609,7 +9622,7 @@
       </c>
       <c r="L125" s="1"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>116</v>
       </c>
@@ -9645,7 +9658,7 @@
       </c>
       <c r="L126" s="1"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>117</v>
       </c>
@@ -9681,7 +9694,7 @@
       </c>
       <c r="L127" s="1"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>118</v>
       </c>
@@ -9717,7 +9730,7 @@
       </c>
       <c r="L128" s="1"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>119</v>
       </c>
@@ -9753,7 +9766,7 @@
       </c>
       <c r="L129" s="1"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>120</v>
       </c>
@@ -9789,7 +9802,7 @@
       </c>
       <c r="L130" s="1"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>121</v>
       </c>
@@ -9825,7 +9838,7 @@
       </c>
       <c r="L131" s="1"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>122</v>
       </c>
@@ -9861,7 +9874,7 @@
       </c>
       <c r="L132" s="1"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>123</v>
       </c>
@@ -9897,7 +9910,7 @@
       </c>
       <c r="L133" s="1"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>124</v>
       </c>
@@ -9933,7 +9946,7 @@
       </c>
       <c r="L134" s="1"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>251</v>
       </c>
@@ -9969,7 +9982,7 @@
       </c>
       <c r="L135" s="1"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>252</v>
       </c>
@@ -10005,7 +10018,7 @@
       </c>
       <c r="L136" s="1"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>253</v>
       </c>
@@ -10041,7 +10054,7 @@
       </c>
       <c r="L137" s="1"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>254</v>
       </c>
@@ -10077,7 +10090,7 @@
       </c>
       <c r="L138" s="1"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>125</v>
       </c>
@@ -10113,7 +10126,7 @@
       </c>
       <c r="L139" s="1"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>126</v>
       </c>
@@ -10149,7 +10162,7 @@
       </c>
       <c r="L140" s="1"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>127</v>
       </c>
@@ -10185,7 +10198,7 @@
       </c>
       <c r="L141" s="1"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>128</v>
       </c>
@@ -10221,7 +10234,7 @@
       </c>
       <c r="L142" s="1"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>129</v>
       </c>
@@ -10257,7 +10270,7 @@
       </c>
       <c r="L143" s="1"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>130</v>
       </c>
@@ -10293,7 +10306,7 @@
       </c>
       <c r="L144" s="1"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>131</v>
       </c>
@@ -10329,7 +10342,7 @@
       </c>
       <c r="L145" s="1"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>132</v>
       </c>
@@ -10365,7 +10378,7 @@
       </c>
       <c r="L146" s="1"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>133</v>
       </c>
@@ -10401,7 +10414,7 @@
       </c>
       <c r="L147" s="1"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>134</v>
       </c>
@@ -10437,7 +10450,7 @@
       </c>
       <c r="L148" s="1"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>135</v>
       </c>
@@ -10473,7 +10486,7 @@
       </c>
       <c r="L149" s="1"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>136</v>
       </c>
@@ -10509,7 +10522,7 @@
       </c>
       <c r="L150" s="1"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>137</v>
       </c>
@@ -10545,7 +10558,7 @@
       </c>
       <c r="L151" s="1"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>169</v>
       </c>
@@ -10581,7 +10594,7 @@
       </c>
       <c r="L152" s="1"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>170</v>
       </c>
@@ -10617,7 +10630,7 @@
       </c>
       <c r="L153" s="1"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>171</v>
       </c>
@@ -10653,7 +10666,7 @@
       </c>
       <c r="L154" s="1"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>172</v>
       </c>
@@ -10689,7 +10702,7 @@
       </c>
       <c r="L155" s="1"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>173</v>
       </c>
@@ -10725,7 +10738,7 @@
       </c>
       <c r="L156" s="1"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>138</v>
       </c>
@@ -10761,7 +10774,7 @@
       </c>
       <c r="L157" s="1"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>139</v>
       </c>
@@ -10797,7 +10810,7 @@
       </c>
       <c r="L158" s="1"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>140</v>
       </c>
@@ -10833,7 +10846,7 @@
       </c>
       <c r="L159" s="1"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>141</v>
       </c>
@@ -10869,7 +10882,7 @@
       </c>
       <c r="L160" s="1"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>142</v>
       </c>
@@ -10905,7 +10918,7 @@
       </c>
       <c r="L161" s="1"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>143</v>
       </c>
@@ -10941,7 +10954,7 @@
       </c>
       <c r="L162" s="1"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>144</v>
       </c>
@@ -10977,7 +10990,7 @@
       </c>
       <c r="L163" s="1"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>145</v>
       </c>
@@ -11013,7 +11026,7 @@
       </c>
       <c r="L164" s="1"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>146</v>
       </c>
@@ -11049,7 +11062,7 @@
       </c>
       <c r="L165" s="1"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>147</v>
       </c>
@@ -11085,7 +11098,7 @@
       </c>
       <c r="L166" s="1"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>174</v>
       </c>
@@ -11121,7 +11134,7 @@
       </c>
       <c r="L167" s="1"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>175</v>
       </c>
@@ -11157,7 +11170,7 @@
       </c>
       <c r="L168" s="1"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>176</v>
       </c>
@@ -11193,7 +11206,7 @@
       </c>
       <c r="L169" s="1"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>177</v>
       </c>
@@ -11229,7 +11242,7 @@
       </c>
       <c r="L170" s="1"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>178</v>
       </c>
@@ -11265,7 +11278,7 @@
       </c>
       <c r="L171" s="1"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>179</v>
       </c>
@@ -11301,7 +11314,7 @@
       </c>
       <c r="L172" s="1"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>180</v>
       </c>
@@ -11337,7 +11350,7 @@
       </c>
       <c r="L173" s="1"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>148</v>
       </c>
@@ -11373,7 +11386,7 @@
       </c>
       <c r="L174" s="1"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>149</v>
       </c>
@@ -11409,7 +11422,7 @@
       </c>
       <c r="L175" s="1"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>150</v>
       </c>
@@ -11445,7 +11458,7 @@
       </c>
       <c r="L176" s="1"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>151</v>
       </c>
@@ -11481,7 +11494,7 @@
       </c>
       <c r="L177" s="1"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>152</v>
       </c>
@@ -11517,7 +11530,7 @@
       </c>
       <c r="L178" s="1"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>153</v>
       </c>
@@ -11553,7 +11566,7 @@
       </c>
       <c r="L179" s="1"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>154</v>
       </c>
@@ -11589,7 +11602,7 @@
       </c>
       <c r="L180" s="1"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>155</v>
       </c>
@@ -11625,7 +11638,7 @@
       </c>
       <c r="L181" s="1"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>156</v>
       </c>
@@ -11661,7 +11674,7 @@
       </c>
       <c r="L182" s="1"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>157</v>
       </c>
@@ -11697,7 +11710,7 @@
       </c>
       <c r="L183" s="1"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>181</v>
       </c>
@@ -11733,7 +11746,7 @@
       </c>
       <c r="L184" s="1"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>182</v>
       </c>
@@ -11769,7 +11782,7 @@
       </c>
       <c r="L185" s="1"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>255</v>
       </c>
@@ -11805,7 +11818,7 @@
       </c>
       <c r="L186" s="1"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>256</v>
       </c>
@@ -11841,7 +11854,7 @@
       </c>
       <c r="L187" s="1"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>257</v>
       </c>
@@ -11877,7 +11890,7 @@
       </c>
       <c r="L188" s="1"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>158</v>
       </c>
@@ -11913,7 +11926,7 @@
       </c>
       <c r="L189" s="1"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>159</v>
       </c>
@@ -11949,7 +11962,7 @@
       </c>
       <c r="L190" s="1"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>160</v>
       </c>
@@ -11985,7 +11998,7 @@
       </c>
       <c r="L191" s="1"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>258</v>
       </c>
@@ -12021,7 +12034,7 @@
       </c>
       <c r="L192" s="1"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>259</v>
       </c>
@@ -12057,7 +12070,7 @@
       </c>
       <c r="L193" s="1"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>161</v>
       </c>
@@ -12093,7 +12106,7 @@
       </c>
       <c r="L194" s="1"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>162</v>
       </c>
@@ -12129,7 +12142,7 @@
       </c>
       <c r="L195" s="1"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>163</v>
       </c>
@@ -12165,7 +12178,7 @@
       </c>
       <c r="L196" s="1"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>164</v>
       </c>
@@ -12201,7 +12214,7 @@
       </c>
       <c r="L197" s="1"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>165</v>
       </c>
@@ -12237,7 +12250,7 @@
       </c>
       <c r="L198" s="1"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>166</v>
       </c>
@@ -12273,7 +12286,7 @@
       </c>
       <c r="L199" s="1"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>183</v>
       </c>
@@ -12309,7 +12322,7 @@
       </c>
       <c r="L200" s="1"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>184</v>
       </c>
